--- a/doc/SS设计书 _技术者.xlsx
+++ b/doc/SS设计书 _技术者.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinedu-my.sharepoint.com/personal/a2982_myoffice_site/Documents/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinedu-my.sharepoint.com/personal/a2982_myoffice_site/Documents/我的工作/Java教育中级/开发环境/git/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{C96C57C7-8D82-2744-89CC-9AD6F37AFDE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{CAF7FF0A-A8B8-714E-98C4-F1C94970511C}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{C96C57C7-8D82-2744-89CC-9AD6F37AFDE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E5001231-0EAC-DF46-9CF4-C216CBEE859D}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2460" windowWidth="27840" windowHeight="16940" activeTab="3" xr2:uid="{95926FF3-2221-DD4A-A2B1-3034ED57627F}"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="27840" windowHeight="16080" xr2:uid="{95926FF3-2221-DD4A-A2B1-3034ED57627F}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="文件db.文件書込" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="151">
   <si>
     <t>class名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,10 +68,6 @@
   </si>
   <si>
     <t>跳转页面名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -334,43 +331,76 @@
     <t>【案件名称文件全路径】</t>
   </si>
   <si>
-    <t>2、採番</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1、 取得【路径名】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1 取得【已有案件件数】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 取得【数据文件全路径】</t>
+    <t>已有数据件数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、初始化【记录数】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、循环取得文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、循环结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、关闭文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、返回【记录数】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>文件書込</t>
-  </si>
-  <si>
-    <t>3.4 如果是"募集人数"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 如果存在“募集人数”相关的入力信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bean.募集人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开【写入对象文件路】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【写入对象文件路径】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【写入内容】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、写入【写入内容】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、关闭文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 每读取一行【记录数】加1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、文件db.採番</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、文件db.文件書込</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技術者</t>
     </r>
     <r>
       <rPr>
@@ -379,80 +409,54 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>db</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getSPath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已有数据件数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、打开文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、初始化【记录数】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、循环取得文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、循环结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、关闭文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、返回【记录数】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件書込</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、打开【写入对象文件路】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【写入对象文件路径】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【写入内容】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、写入【写入内容】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、关闭文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 每读取一行【记录数】加1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、文件db.採番</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、文件db.文件書込</t>
+      <t>Controller</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、技術者Controller.技術者save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、技術者service.追加技術者_by技術者Bean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、技術者service.追加技術者_byFile_db_技術者Bean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、追加技術者信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -466,20 +470,122 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Controller</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、技術者Controller.技術者save</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、技術者service.追加技術者_by技術者Bean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、技術者service.追加技術者_byFile_db_技術者Bean</t>
+      <t>Service</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>追加技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>_by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技術者Bean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1、返回"技術者検索"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2、返回"技術者明細"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>追加技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>追加技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>_byFile_db_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>技術者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -493,137 +599,425 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>save</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
       <t>Bean</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、追加技術者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Service</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>追加技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>_by</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>(1) 如果存在“技術者名称”相关的入力信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、对技术者采番</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>親Service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID採番</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文件db </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s項目名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>採番ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bean.技術者ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"技術項目_ID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"技術者_社員CD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"姓名"</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bean</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技術者Bean</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1、返回"技術者検索"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2、返回"技術者明細"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>追加技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>_by</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"性别"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"生年月日"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"最終卒業学校名"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"最終学位"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"卒業技能"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"会社名"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"TEL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"FAX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"最寄駅"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"就職開始年月"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"日本語読み能力"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"日本語書き能力"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"日本語会話能力"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"日本語レベル"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"英語読み能力"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"英語書き能力"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"英語会話能力"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"英検点数"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"仕事_留学_経験有無"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"仕事_留学_経験開始年月"</t>
+  </si>
+  <si>
+    <t>listToStr</t>
+  </si>
+  <si>
+    <t>List&lt;String&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t>Bean</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>追加技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>_byFile_db_</t>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>経験_案件ID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【经验案件IDlist】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【经验案件IDlistStr】</t>
+  </si>
+  <si>
+    <t>【经验案件IDlistStr】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、登陆该技术者所有经验案件，取得经验案件ID</t>
+  </si>
+  <si>
+    <t>3、登陆技术者所有技术情报，取得技术情报ID</t>
+  </si>
+  <si>
+    <t>案件service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆案件情報List</t>
+  </si>
+  <si>
+    <r>
+      <t>bean</t>
     </r>
     <r>
       <rPr>
@@ -632,80 +1026,122 @@
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>技術者</t>
+      <t>.get経験_案件情報()</t>
+    </r>
+  </si>
+  <si>
+    <t>List&lt;List&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验案件Idlist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技術情報Service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆技術情报List</t>
+  </si>
+  <si>
+    <r>
+      <t>bean</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bean</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>技術者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Bean</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、取得【技術者名称文件全路径】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2、【技術者名称文件全路径】=【路径名】+"技術者名称"+".txt"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【技術者ID文件全路径】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>【已有技術者件数】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 ID=【已有技術者件数】+ 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、循环处理技術者信息的每一个数据文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 如果是"技術者名称"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 如果存在“技術者名称”相关的入力信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bean.技術者名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3 如果是"技術者概要"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 如果存在“技術者概要”相关的入力信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bean.技術者概要</t>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.get技術項目_情報()</t>
+    </r>
+  </si>
+  <si>
+    <t>技术情报IDlist</t>
+  </si>
+  <si>
+    <t>4、循环处理技術者信息的每一个数据文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 取得【数据文件全路径】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 如果是"技術者ID"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>4.11</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>4.13</t>
+  </si>
+  <si>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>4.23</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.26</t>
+  </si>
+  <si>
+    <t>同 4.2处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +1149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -860,6 +1296,45 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1000,7 +1475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,9 +1530,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1104,6 +1576,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,35 +1924,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8758DEF-4098-EA4B-BBCC-8595E776BC06}">
   <dimension ref="B4:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="4" spans="2:2" ht="33">
-      <c r="B4" s="34" t="s">
-        <v>73</v>
+      <c r="B4" s="33" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="33">
-      <c r="B5" s="34" t="s">
-        <v>74</v>
+      <c r="B5" s="33" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="33">
-      <c r="B6" s="34" t="s">
-        <v>75</v>
+      <c r="B6" s="33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="33">
-      <c r="B7" s="34" t="s">
-        <v>70</v>
+      <c r="B7" s="33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="33">
-      <c r="B8" s="34" t="s">
-        <v>71</v>
+      <c r="B8" s="33" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EAC6E8-8DAD-1F49-B05A-095419B65B43}">
   <dimension ref="A2:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -1479,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21">
@@ -1487,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1495,10 +1997,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1527,7 +2029,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1"/>
@@ -1536,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1556,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1576,10 +2078,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1598,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1609,149 +2111,149 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="C27" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="17" thickBot="1"/>
     <row r="34" spans="3:8" ht="17" thickBot="1">
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="3:8" ht="17" thickBot="1">
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="3:8" ht="17" thickBot="1">
-      <c r="D36" s="20" t="s">
-        <v>19</v>
+      <c r="D36" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="25" t="s">
-        <v>28</v>
+      <c r="F36" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="3:8" ht="17" thickBot="1">
-      <c r="D37" s="20" t="s">
-        <v>20</v>
+      <c r="D37" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="25" t="s">
-        <v>29</v>
+      <c r="F37" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="3:8" ht="17" thickBot="1">
-      <c r="D38" s="20" t="s">
-        <v>21</v>
+      <c r="D38" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="25" t="s">
-        <v>30</v>
+      <c r="F38" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="3:8" ht="17" thickBot="1">
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="3:8" ht="17" thickBot="1">
+      <c r="D40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="26" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-    </row>
-    <row r="40" spans="3:8" ht="17" thickBot="1">
-      <c r="D40" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="3:8" ht="17" thickBot="1">
-      <c r="D41" s="21" t="s">
-        <v>24</v>
+      <c r="D41" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="E41" s="14"/>
-      <c r="F41" s="27" t="s">
-        <v>33</v>
+      <c r="F41" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
     <row r="42" spans="3:8" ht="17" thickBot="1">
-      <c r="D42" s="21" t="s">
-        <v>25</v>
+      <c r="D42" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="E42" s="14"/>
-      <c r="F42" s="27" t="s">
-        <v>34</v>
+      <c r="F42" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="3:8" ht="17" thickBot="1">
-      <c r="D43" s="21" t="s">
-        <v>26</v>
+      <c r="D43" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="E43" s="14"/>
-      <c r="F43" s="27" t="s">
-        <v>35</v>
+      <c r="F43" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
     </row>
     <row r="44" spans="3:8" ht="17" thickBot="1">
-      <c r="D44" s="21" t="s">
-        <v>27</v>
+      <c r="D44" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="E44" s="14"/>
-      <c r="F44" s="27" t="s">
-        <v>36</v>
+      <c r="F44" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
     </row>
     <row r="46" spans="3:8">
       <c r="C46" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1780,15 +2282,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>84</v>
+      <c r="B4" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1796,10 +2298,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1821,7 +2323,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" thickBot="1"/>
@@ -1830,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1850,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1870,10 +2372,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1892,16 +2394,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="D23" s="18"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1912,17 +2414,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B21F28-7748-CB47-9F94-67E3252EEF03}">
-  <dimension ref="A2:J84"/>
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A2:J138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="28">
@@ -1930,15 +2437,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>84</v>
+      <c r="B4" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1946,10 +2453,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1971,389 +2478,437 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17" thickBot="1">
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="28">
-      <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" thickBot="1"/>
+    <row r="17" spans="2:8" ht="28">
+      <c r="C17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="C19" s="10"/>
-      <c r="D19" s="16"/>
+      <c r="D17" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" s="10"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="2:8" ht="21">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" ht="21">
-      <c r="C20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>54</v>
-      </c>
+    <row r="20" spans="2:8">
+      <c r="C20" s="10"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="C22" s="10" t="s">
-        <v>2</v>
-      </c>
+      <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="16"/>
+        <v>81</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8">
-      <c r="C23" s="10"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="2:8" ht="17" thickBot="1">
-      <c r="C24" s="13" t="s">
+    <row r="23" spans="2:8" ht="17" thickBot="1">
+      <c r="C23" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
+      <c r="D23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="17" thickBot="1"/>
+    <row r="27" spans="2:8" ht="28">
+      <c r="C27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" s="10"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="2:8" ht="21">
+      <c r="C29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" s="10"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="17" thickBot="1"/>
-    <row r="34" spans="2:8" ht="28">
-      <c r="C34" s="6" t="s">
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="C32" s="10"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="2:8" ht="17" thickBot="1">
+      <c r="C33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="41" spans="2:8" ht="17" customHeight="1">
+      <c r="B41" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="17" customHeight="1" thickBot="1"/>
+    <row r="43" spans="2:8" ht="26" customHeight="1">
+      <c r="C43" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="C35" s="10"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="2:8" ht="21">
-      <c r="C36" s="12" t="s">
+      <c r="D43" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="2:8" ht="17" customHeight="1">
+      <c r="C44" s="10"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="2:8" ht="17" customHeight="1">
+      <c r="C45" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="C37" s="10"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="C38" s="10" t="s">
+      <c r="D45" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="2:8" ht="17" customHeight="1">
+      <c r="C46" s="10"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="2:8" ht="17" customHeight="1">
+      <c r="C47" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="C39" s="10"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="2:8" ht="17" thickBot="1">
-      <c r="C40" s="13" t="s">
+      <c r="D47" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="2:8" ht="17" customHeight="1">
+      <c r="C48" s="10"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="2:10" ht="17" customHeight="1" thickBot="1">
+      <c r="C49" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10">
-      <c r="C49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10">
-      <c r="D51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" ht="17" thickBot="1"/>
-    <row r="53" spans="3:10" ht="28">
-      <c r="E53" s="6" t="s">
+      <c r="D49" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="2:10" ht="17" customHeight="1"/>
+    <row r="51" spans="2:10" ht="17" customHeight="1"/>
+    <row r="52" spans="2:10" ht="17" customHeight="1"/>
+    <row r="53" spans="2:10" ht="17" customHeight="1"/>
+    <row r="54" spans="2:10" ht="17" customHeight="1">
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="17" customHeight="1"/>
+    <row r="56" spans="2:10">
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="C58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="17" thickBot="1"/>
+    <row r="62" spans="2:10" ht="28">
+      <c r="E62" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="3:10">
-      <c r="E54" s="10"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="3:10" ht="21">
-      <c r="E55" s="12" t="s">
+      <c r="F62" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="E63" s="10"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="2:10" ht="21">
+      <c r="E64" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" spans="3:10">
-      <c r="E56" s="10"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="11"/>
-    </row>
-    <row r="57" spans="3:10">
-      <c r="E57" s="10" t="s">
+      <c r="F64" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="3:10">
+      <c r="C65" s="16"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="E66" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="11"/>
-    </row>
-    <row r="58" spans="3:10">
-      <c r="E58" s="10"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="11"/>
-    </row>
-    <row r="59" spans="3:10" ht="17" thickBot="1">
-      <c r="E59" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="61" spans="3:10">
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10">
-      <c r="D63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" ht="17" thickBot="1"/>
-    <row r="65" spans="3:10" ht="28">
-      <c r="E65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="3:10">
-      <c r="E66" s="10"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
       <c r="J66" s="11"/>
     </row>
-    <row r="67" spans="3:10" ht="21">
-      <c r="E67" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>49</v>
-      </c>
+    <row r="67" spans="3:10">
+      <c r="E67" s="10"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
       <c r="J67" s="11"/>
     </row>
-    <row r="68" spans="3:10">
-      <c r="E68" s="10"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="11"/>
-    </row>
-    <row r="69" spans="3:10">
-      <c r="E69" s="10" t="s">
+    <row r="68" spans="3:10" ht="17" thickBot="1">
+      <c r="E68" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="71" spans="3:10">
+      <c r="D71" s="35"/>
+    </row>
+    <row r="72" spans="3:10">
+      <c r="C72" s="36">
+        <v>4.3</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="3:10" ht="17" thickBot="1">
+      <c r="C73" s="36"/>
+      <c r="D73" s="35"/>
+    </row>
+    <row r="74" spans="3:10" ht="28">
+      <c r="C74" s="36"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="3:10">
+      <c r="C75" s="36"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="3:10" ht="21">
+      <c r="C76" s="36"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="C77" s="36"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="78" spans="3:10">
+      <c r="C78" s="36"/>
+      <c r="D78" s="35"/>
+      <c r="E78" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F69" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="11"/>
-    </row>
-    <row r="70" spans="3:10">
-      <c r="E70" s="10"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="11"/>
-    </row>
-    <row r="71" spans="3:10" ht="17" thickBot="1">
-      <c r="E71" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-    </row>
-    <row r="74" spans="3:10">
-      <c r="C74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="3:10">
-      <c r="D76" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" ht="17" thickBot="1"/>
-    <row r="78" spans="3:10" ht="28">
-      <c r="E78" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="9"/>
+      <c r="F78" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="79" spans="3:10">
+      <c r="C79" s="36"/>
+      <c r="D79" s="35"/>
       <c r="E79" s="10"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
@@ -2361,59 +2916,594 @@
       <c r="I79" s="16"/>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="3:10" ht="21">
-      <c r="E80" s="12" t="s">
+    <row r="80" spans="3:10" ht="17" thickBot="1">
+      <c r="C80" s="36"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="C81" s="36"/>
+      <c r="D81" s="35"/>
+    </row>
+    <row r="82" spans="2:10" ht="17" thickBot="1">
+      <c r="B82" s="16"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="35"/>
+    </row>
+    <row r="83" spans="2:10" ht="28">
+      <c r="C83" s="36"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="C84" s="36"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" ht="21">
+      <c r="C85" s="36"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="11"/>
-    </row>
-    <row r="81" spans="5:10">
-      <c r="E81" s="10"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="11"/>
-    </row>
-    <row r="82" spans="5:10">
-      <c r="E82" s="10" t="s">
+      <c r="F85" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="C86" s="36"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="C87" s="36"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="11"/>
-    </row>
-    <row r="83" spans="5:10">
-      <c r="E83" s="10"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="5:10" ht="17" thickBot="1">
-      <c r="E84" s="13" t="s">
+      <c r="F87" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="C88" s="36"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="2:10" ht="17" thickBot="1">
+      <c r="C89" s="36"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F84" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
+      <c r="F89" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G89" s="28"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="15"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="C90" s="36"/>
+      <c r="D90" s="35"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="C91" s="36"/>
+      <c r="D91" s="35"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="C92" s="36"/>
+      <c r="D92" s="35"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="C93" s="36"/>
+      <c r="D93" s="35"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="C94" s="36"/>
+      <c r="D94" s="35"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="C95" s="36">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="17" thickBot="1">
+      <c r="C96" s="36"/>
+      <c r="D96" s="35"/>
+    </row>
+    <row r="97" spans="3:10" ht="28">
+      <c r="C97" s="36"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="9"/>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98" s="36"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="3:10" ht="21">
+      <c r="C99" s="36"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="3:10">
+      <c r="C100" s="36"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="3:10">
+      <c r="C101" s="36"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="3:10">
+      <c r="C102" s="36"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="3:10" ht="17" thickBot="1">
+      <c r="C103" s="36"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="15"/>
+    </row>
+    <row r="104" spans="3:10">
+      <c r="C104" s="36"/>
+      <c r="D104" s="35"/>
+    </row>
+    <row r="105" spans="3:10" ht="17" thickBot="1">
+      <c r="C105" s="36"/>
+      <c r="D105" s="35"/>
+    </row>
+    <row r="106" spans="3:10" ht="28">
+      <c r="C106" s="36"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="9"/>
+    </row>
+    <row r="107" spans="3:10">
+      <c r="C107" s="36"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="11"/>
+    </row>
+    <row r="108" spans="3:10" ht="21">
+      <c r="C108" s="36"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="3:10">
+      <c r="C109" s="36"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="11"/>
+    </row>
+    <row r="110" spans="3:10">
+      <c r="C110" s="36"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="11"/>
+    </row>
+    <row r="111" spans="3:10">
+      <c r="C111" s="36"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="11"/>
+    </row>
+    <row r="112" spans="3:10" ht="17" thickBot="1">
+      <c r="C112" s="36"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G112" s="28"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="3:6">
+      <c r="C113" s="36"/>
+      <c r="D113" s="35"/>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="C114" s="36"/>
+      <c r="D114" s="35"/>
+    </row>
+    <row r="115" spans="3:6">
+      <c r="C115" s="36"/>
+      <c r="D115" s="35"/>
+    </row>
+    <row r="116" spans="3:6">
+      <c r="C116" s="36"/>
+      <c r="D116" s="35"/>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="C117" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6">
+      <c r="C118" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="F118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6">
+      <c r="C119" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="F119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6">
+      <c r="C120" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6">
+      <c r="C121" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6">
+      <c r="C122" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6">
+      <c r="C123" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6">
+      <c r="C124" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6">
+      <c r="C125" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6">
+      <c r="C126" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6">
+      <c r="C127" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6">
+      <c r="C128" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6">
+      <c r="C129" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6">
+      <c r="C130" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D130" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6">
+      <c r="C131" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6">
+      <c r="C132" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6">
+      <c r="C133" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6">
+      <c r="C134" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F134" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6">
+      <c r="C135" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F135" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6">
+      <c r="C136" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F136" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" spans="3:6">
+      <c r="C137" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F137" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6">
+      <c r="C138" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="F138" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2439,15 +3529,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>42</v>
+      <c r="B4" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2455,10 +3545,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>43</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2470,10 +3560,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2483,37 +3573,37 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2540,15 +3630,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>42</v>
+      <c r="B4" s="27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2556,18 +3646,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2575,10 +3665,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2588,17 +3678,17 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SS设计书 _技术者.xlsx
+++ b/doc/SS设计书 _技术者.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinedu-my.sharepoint.com/personal/a2982_myoffice_site/Documents/我的工作/Java教育中级/开发环境/git/JavaMiddleClassCompleteSource/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{C96C57C7-8D82-2744-89CC-9AD6F37AFDE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{E5001231-0EAC-DF46-9CF4-C216CBEE859D}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{C96C57C7-8D82-2744-89CC-9AD6F37AFDE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7D345241-B504-0E40-9B44-6A995F0EAF79}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="460" windowWidth="27840" windowHeight="16080" xr2:uid="{95926FF3-2221-DD4A-A2B1-3034ED57627F}"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="27840" windowHeight="19020" activeTab="1" xr2:uid="{95926FF3-2221-DD4A-A2B1-3034ED57627F}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="文件db.文件書込" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -456,10 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、追加技術者信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>技術者</t>
     </r>
@@ -515,10 +510,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.1、返回"技術者検索"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.2、返回"技術者明細"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1142,6 +1133,14 @@
   </si>
   <si>
     <t>同 4.2处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调用函数 追加技術者信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1、返回字符串 "技術者検索"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1924,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8758DEF-4098-EA4B-BBCC-8595E776BC06}">
   <dimension ref="B4:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1963,297 +1962,298 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EAC6E8-8DAD-1F49-B05A-095419B65B43}">
-  <dimension ref="A2:H46"/>
+  <dimension ref="B2:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="28">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:9" ht="28">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:9" ht="21">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:9">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
+    <row r="14" spans="2:9">
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="17" thickBot="1"/>
+    <row r="16" spans="2:9" ht="28">
+      <c r="D16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1"/>
-    <row r="16" spans="1:7" ht="28">
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="10"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="D17" s="10"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="2:7" ht="21">
-      <c r="B18" s="12" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="3:9" ht="21">
+      <c r="D18" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="D19" s="10"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="10" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="D20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="10"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="D21" s="10"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" ht="17" thickBot="1">
-      <c r="B22" s="13" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="3:9" ht="17" thickBot="1">
+      <c r="D22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="C27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" t="s">
+    <row r="27" spans="3:9">
+      <c r="D27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="C32" t="s">
+    <row r="32" spans="3:9">
+      <c r="D32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="17" thickBot="1"/>
-    <row r="34" spans="3:8" ht="17" thickBot="1">
-      <c r="D34" s="19" t="s">
+    <row r="33" spans="4:9" ht="17" thickBot="1"/>
+    <row r="34" spans="4:9" ht="17" thickBot="1">
+      <c r="E34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="8"/>
+      <c r="G34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="3:8" ht="17" thickBot="1">
-      <c r="D35" s="19" t="s">
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="4:9" ht="17" thickBot="1">
+      <c r="E35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="3:8" ht="17" thickBot="1">
-      <c r="D36" s="19" t="s">
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="4:9" ht="17" thickBot="1">
+      <c r="E36" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="3:8" ht="17" thickBot="1">
-      <c r="D37" s="19" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="4:9" ht="17" thickBot="1">
+      <c r="E37" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="24" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="3:8" ht="17" thickBot="1">
-      <c r="D38" s="19" t="s">
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="4:9" ht="17" thickBot="1">
+      <c r="E38" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="3:8" ht="17" thickBot="1">
-      <c r="D39" s="21" t="s">
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="4:9" ht="17" thickBot="1">
+      <c r="E39" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="3:8" ht="17" thickBot="1">
-      <c r="D40" s="20" t="s">
+      <c r="H39" s="22"/>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="4:9" ht="17" thickBot="1">
+      <c r="E40" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="3:8" ht="17" thickBot="1">
-      <c r="D41" s="20" t="s">
+      <c r="H40" s="14"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="4:9" ht="17" thickBot="1">
+      <c r="E41" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="3:8" ht="17" thickBot="1">
-      <c r="D42" s="20" t="s">
+      <c r="H41" s="14"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="4:9" ht="17" thickBot="1">
+      <c r="E42" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="3:8" ht="17" thickBot="1">
-      <c r="D43" s="20" t="s">
+      <c r="H42" s="14"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="4:9" ht="17" thickBot="1">
+      <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="14"/>
+      <c r="G43" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="3:8" ht="17" thickBot="1">
-      <c r="D44" s="20" t="s">
+      <c r="H43" s="14"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="4:9" ht="17" thickBot="1">
+      <c r="E44" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="26" t="s">
+      <c r="F44" s="14"/>
+      <c r="G44" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" t="s">
-        <v>71</v>
+      <c r="H44" s="14"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23">
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2372,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>10</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23">
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" thickBot="1"/>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2507,7 +2507,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -2527,10 +2527,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2539,10 +2539,10 @@
     <row r="22" spans="2:8">
       <c r="C22" s="10"/>
       <c r="D22" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -2553,10 +2553,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>83</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="17" thickBot="1"/>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -2613,10 +2613,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -2635,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="41" spans="2:8" ht="17" customHeight="1">
       <c r="B41" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="17" customHeight="1" thickBot="1"/>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -2695,10 +2695,10 @@
         <v>2</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -2717,10 +2717,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
@@ -2732,23 +2732,23 @@
     <row r="53" spans="2:10" ht="17" customHeight="1"/>
     <row r="54" spans="2:10" ht="17" customHeight="1">
       <c r="B54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="17" customHeight="1"/>
     <row r="56" spans="2:10">
       <c r="C56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="C58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="D60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickBot="1"/>
@@ -2801,7 +2801,7 @@
         <v>9</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
@@ -2835,7 +2835,7 @@
         <v>4.3</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="3:10" ht="17" thickBot="1">
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
@@ -2897,10 +2897,10 @@
         <v>2</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
@@ -2926,7 +2926,7 @@
         <v>9</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -2999,7 +2999,7 @@
         <v>9</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
@@ -3054,7 +3054,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D95" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="2:10" ht="17" thickBot="1">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
@@ -3092,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
@@ -3116,10 +3116,10 @@
         <v>2</v>
       </c>
       <c r="F101" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G101" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>111</v>
       </c>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
@@ -3145,7 +3145,7 @@
         <v>9</v>
       </c>
       <c r="G103" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
@@ -3217,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
@@ -3265,244 +3265,244 @@
     </row>
     <row r="117" spans="3:6">
       <c r="C117" s="37" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F117" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="3:6">
       <c r="C118" s="37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="3:6">
       <c r="C119" s="37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D119" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="3:6">
       <c r="C120" s="37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="3:6">
       <c r="C121" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D121" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="3:6">
       <c r="C122" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="123" spans="3:6">
       <c r="C123" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D123" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="3:6">
       <c r="C124" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D124" s="35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="3:6">
       <c r="C125" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="3:6">
       <c r="C126" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D126" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="3:6">
       <c r="C127" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D127" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F127" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="3:6">
       <c r="C128" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="3:6">
       <c r="C129" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D129" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F129" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="3:6">
       <c r="C130" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D130" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="3:6">
       <c r="C131" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D131" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="3:6">
       <c r="C132" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D132" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="3:6">
       <c r="C133" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D133" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F133" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="3:6">
       <c r="C134" s="37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D134" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F134" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="3:6">
       <c r="C135" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F135" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="3:6">
       <c r="C136" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D136" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F136" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="3:6">
       <c r="C137" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" t="s">
         <v>148</v>
-      </c>
-      <c r="D137" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="F137" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="138" spans="3:6">
       <c r="C138" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F138" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
